--- a/data/trans_dic/P34B04_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34B04_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.05456872787671357</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.06254859752975363</v>
+        <v>0.06254859752975366</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.009044383605657293</v>
@@ -655,7 +655,7 @@
         <v>0.008140864897140866</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.006604865620389247</v>
+        <v>0.006604865620389248</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.0385643323892856</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05006978886375431</v>
+        <v>0.05032345525932897</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03918468418009134</v>
+        <v>0.03968416732663503</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04428814244395544</v>
+        <v>0.04454367962199336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003771873649357307</v>
+        <v>0.002706452740268786</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003750041874655888</v>
+        <v>0.002850508733583969</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002840363844497207</v>
+        <v>0.003022493943108621</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02894264606501738</v>
+        <v>0.02872528260836194</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02339238164664167</v>
+        <v>0.02356092521328926</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0240345519443842</v>
+        <v>0.02409594220633965</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09022106522857984</v>
+        <v>0.08732202274661834</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07250292117095304</v>
+        <v>0.07341761406843218</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08961659778575129</v>
+        <v>0.08838064032939565</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02126594446262822</v>
+        <v>0.02092229109808022</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01797579837317789</v>
+        <v>0.01686631614476213</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01460364099597038</v>
+        <v>0.01325818091973389</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05051368302689758</v>
+        <v>0.04947574448451739</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04178170161920483</v>
+        <v>0.04204341199821707</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04656362610811785</v>
+        <v>0.04676520858806381</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.03265397595342085</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.06191941160324473</v>
+        <v>0.06191941160324472</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.053132639500373</v>
+        <v>0.05258564785566402</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03893311405534096</v>
+        <v>0.03938882726324711</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08109891291987932</v>
+        <v>0.07967335735526505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003982257818377515</v>
+        <v>0.003793765432625476</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00738882353613606</v>
+        <v>0.007350890477715878</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01522253826129566</v>
+        <v>0.01497726739441215</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02960213758300516</v>
+        <v>0.02992126883906171</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02483623363315789</v>
+        <v>0.02554741520088741</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04904592161729432</v>
+        <v>0.05071723677877305</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08671911767726477</v>
+        <v>0.08494048385508667</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06938277292975929</v>
+        <v>0.06978931174422812</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1288795894416561</v>
+        <v>0.1267056146918556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01590719668239542</v>
+        <v>0.01595321512077242</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02127152133485384</v>
+        <v>0.02098783518835356</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03362646961043676</v>
+        <v>0.03245322767074754</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04853298333851695</v>
+        <v>0.04728912506096968</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04166274508783144</v>
+        <v>0.04256797874759047</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07553116293787225</v>
+        <v>0.07699826559711392</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06433503121914079</v>
+        <v>0.06442544141603224</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04768951920507895</v>
+        <v>0.04736241407127529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05328113754253748</v>
+        <v>0.05202345252796918</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001284627659192881</v>
+        <v>0.001269976152462847</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003645989633820933</v>
+        <v>0.003648389335329164</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01411718468549155</v>
+        <v>0.01396896928163376</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03365528037288781</v>
+        <v>0.03325764593892695</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02654680474577669</v>
+        <v>0.02670435130393635</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03648649892632767</v>
+        <v>0.03629260819849849</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1086390022216412</v>
+        <v>0.1052719585120069</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0861712421496269</v>
+        <v>0.08394667498121981</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1095205970070918</v>
+        <v>0.1058656832271716</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01309448614245718</v>
+        <v>0.01186410078147196</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01746805141340433</v>
+        <v>0.01737400247920736</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03906154918198475</v>
+        <v>0.03825994708580584</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05552796539380221</v>
+        <v>0.05473400312658041</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.045962344489155</v>
+        <v>0.04695308120929776</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06480988451424967</v>
+        <v>0.06499902219697819</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06202314270412802</v>
+        <v>0.06146801577428681</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06694758762671374</v>
+        <v>0.0646119741643304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08361340282845015</v>
+        <v>0.08200836604502751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003617056132882259</v>
+        <v>0.004056627316387691</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01115662393543179</v>
+        <v>0.0113926656374282</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01050469165394553</v>
+        <v>0.01134174860710603</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03357947883700414</v>
+        <v>0.0332228718294363</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03929201336827848</v>
+        <v>0.0395095202227399</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04883628751691937</v>
+        <v>0.04765192580803508</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09614789502599237</v>
+        <v>0.09567031072418827</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1007336271874617</v>
+        <v>0.1007747263803357</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1320121143426763</v>
+        <v>0.1310267424127065</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01643922103422941</v>
+        <v>0.01635371303001126</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02782617088311412</v>
+        <v>0.02781931104110862</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02777022398061827</v>
+        <v>0.02842332434449176</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05069182569019593</v>
+        <v>0.05087746074813852</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05878603766103929</v>
+        <v>0.05891451982570903</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07331215054818693</v>
+        <v>0.07260314392271557</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.06349223262738188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.08926204932698681</v>
+        <v>0.08926204932698684</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.007805267375663593</v>
@@ -1100,7 +1100,7 @@
         <v>0.0375216347427424</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.05276482242553932</v>
+        <v>0.05276482242553933</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06466499153713677</v>
+        <v>0.0661686480746638</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.055072770469287</v>
+        <v>0.05539991536464666</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07798213750462946</v>
+        <v>0.07868164208410783</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005071056432791196</v>
+        <v>0.005337938118601711</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.009261965743335758</v>
+        <v>0.009440384299811999</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01426601239450893</v>
+        <v>0.01406229834877403</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03517489219078375</v>
+        <v>0.03544208575897292</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03331372665902499</v>
+        <v>0.03297671956430141</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04582638134240534</v>
+        <v>0.04686123819316569</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08362610303918493</v>
+        <v>0.08390372651144784</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07200574211366807</v>
+        <v>0.07306654569645676</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1025809501600712</v>
+        <v>0.1027763838132724</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01143637414242581</v>
+        <v>0.01125050515760773</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01665639102556401</v>
+        <v>0.01683777980931075</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0235318488746253</v>
+        <v>0.0226735186217207</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04555708915305601</v>
+        <v>0.04547412359662215</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04217251805936301</v>
+        <v>0.04257874747128633</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05932857648003088</v>
+        <v>0.05935586359239532</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35164</v>
+        <v>35342</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26442</v>
+        <v>26779</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30542</v>
+        <v>30719</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2629</v>
+        <v>1887</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2523</v>
+        <v>1918</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2077</v>
+        <v>2211</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>40501</v>
+        <v>40197</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31524</v>
+        <v>31752</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>34154</v>
+        <v>34241</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>63362</v>
+        <v>61326</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>48925</v>
+        <v>49542</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>61802</v>
+        <v>60950</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14823</v>
+        <v>14584</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12095</v>
+        <v>11348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10681</v>
+        <v>9697</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>70686</v>
+        <v>69234</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>56307</v>
+        <v>56659</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>66168</v>
+        <v>66454</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>54086</v>
+        <v>53529</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39806</v>
+        <v>40272</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>85066</v>
+        <v>83571</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4103</v>
+        <v>3909</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7706</v>
+        <v>7666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16280</v>
+        <v>16018</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>60632</v>
+        <v>61286</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>51295</v>
+        <v>52764</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>103899</v>
+        <v>107439</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>88275</v>
+        <v>86465</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>70939</v>
+        <v>71355</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>135184</v>
+        <v>132904</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16389</v>
+        <v>16436</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>22184</v>
+        <v>21888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35963</v>
+        <v>34708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>99407</v>
+        <v>96859</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>86048</v>
+        <v>87918</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>160005</v>
+        <v>163113</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>48742</v>
+        <v>48810</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36223</v>
+        <v>35974</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>42789</v>
+        <v>41779</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11467</v>
+        <v>11346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>51654</v>
+        <v>51044</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>41003</v>
+        <v>41247</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>58938</v>
+        <v>58625</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>82307</v>
+        <v>79756</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65452</v>
+        <v>63762</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>87953</v>
+        <v>85018</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10177</v>
+        <v>9220</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13713</v>
+        <v>13639</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31728</v>
+        <v>31077</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>85224</v>
+        <v>84006</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>70992</v>
+        <v>72522</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>104689</v>
+        <v>104995</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>58726</v>
+        <v>58200</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>62768</v>
+        <v>60578</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>82689</v>
+        <v>81102</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3805</v>
+        <v>4267</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11645</v>
+        <v>11891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11726</v>
+        <v>12661</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>67117</v>
+        <v>66404</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>77851</v>
+        <v>78282</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>102812</v>
+        <v>100318</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>91037</v>
+        <v>90585</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>94445</v>
+        <v>94483</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>130553</v>
+        <v>129578</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17292</v>
+        <v>17202</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29044</v>
+        <v>29037</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>31000</v>
+        <v>31729</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>101320</v>
+        <v>101691</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>116475</v>
+        <v>116730</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>154339</v>
+        <v>152847</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>221459</v>
+        <v>226608</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>186936</v>
+        <v>188047</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>275321</v>
+        <v>277790</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>18035</v>
+        <v>18984</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>32829</v>
+        <v>33462</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>53204</v>
+        <v>52444</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>245560</v>
+        <v>247426</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>231160</v>
+        <v>228822</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>332699</v>
+        <v>340212</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>286395</v>
+        <v>287346</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>244413</v>
+        <v>248013</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>362168</v>
+        <v>362858</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>40672</v>
+        <v>40011</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>59039</v>
+        <v>59682</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>87760</v>
+        <v>84559</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>318040</v>
+        <v>317461</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>292631</v>
+        <v>295449</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>430725</v>
+        <v>430923</v>
       </c>
     </row>
     <row r="24">
